--- a/format.xlsx
+++ b/format.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukesh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukesh\Documents\UiPath\EVerification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -48,7 +48,7 @@
     <x:t>Name of Employee</x:t>
   </x:si>
   <x:si>
-    <x:t>Mr.Sanjay Prajapati</x:t>
+    <x:t>Mr. Dilip Wakdikar</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -57,7 +57,7 @@
     <x:t>Dates of employment</x:t>
   </x:si>
   <x:si>
-    <x:t>2nd January 2018</x:t>
+    <x:t>1st January 2018</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
@@ -66,7 +66,7 @@
     <x:t>When did she/ he leave the company</x:t>
   </x:si>
   <x:si>
-    <x:t>21st January 2019</x:t>
+    <x:t>10th september 2019</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
@@ -102,7 +102,7 @@
     <x:t xml:space="preserve">Salary </x:t>
   </x:si>
   <x:si>
-    <x:t>5,00,000/-pa</x:t>
+    <x:t>2,00,000/- pa</x:t>
   </x:si>
   <x:si>
     <x:t>any issues with the employee regarding absenteeism or tardiness</x:t>
@@ -633,8 +633,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -989,208 +990,210 @@
   <x:dimension ref="A1:F13"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="I15" sqref="I15 I15:I15"/>
+      <x:selection activeCell="C2" sqref="C2 C2:C2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="61.855469" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="24.570312" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="10.285156" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="11.710938" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="61.855469" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="24.570312" style="2" customWidth="1"/>
+    <x:col min="4" max="4" width="10.285156" style="2" customWidth="1"/>
+    <x:col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <x:col min="6" max="6" width="11.710938" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="C1" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
+      <x:c r="D1" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="1" t="s">
+      <x:c r="E1" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="1" t="s">
+      <x:c r="F1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="1" t="s">
+    <x:row r="2" spans="1:6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
+      <x:c r="B2" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C2" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="2" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="1" t="s">
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="s">
+      <x:c r="B3" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="C3" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D3" s="1" t="s"/>
-      <x:c r="E3" s="1" t="s"/>
-      <x:c r="F3" s="1" t="s"/>
+      <x:c r="D3" s="2" t="s"/>
+      <x:c r="E3" s="2" t="s"/>
+      <x:c r="F3" s="2" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="1" t="s">
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B4" s="1" t="s">
+      <x:c r="B4" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C4" s="1" t="s">
+      <x:c r="C4" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="E4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
+      <x:c r="D4" s="2" t="s"/>
+      <x:c r="E4" s="2" t="s"/>
+      <x:c r="F4" s="2" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="1" t="s">
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B5" s="1" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C5" s="1" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="E5" s="1" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
+      <x:c r="D5" s="2" t="s"/>
+      <x:c r="E5" s="2" t="s"/>
+      <x:c r="F5" s="2" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="1" t="s">
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B6" s="1" t="s">
+      <x:c r="B6" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C6" s="1" t="s">
+      <x:c r="C6" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D6" s="1" t="s"/>
-      <x:c r="E6" s="1" t="s"/>
-      <x:c r="F6" s="1" t="s"/>
+      <x:c r="D6" s="2" t="s"/>
+      <x:c r="E6" s="2" t="s"/>
+      <x:c r="F6" s="2" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="1" t="s">
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B7" s="1" t="s">
+      <x:c r="B7" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C7" s="1" t="s">
+      <x:c r="C7" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D7" s="1" t="s"/>
-      <x:c r="E7" s="1" t="s"/>
-      <x:c r="F7" s="1" t="s"/>
+      <x:c r="D7" s="2" t="s"/>
+      <x:c r="E7" s="2" t="s"/>
+      <x:c r="F7" s="2" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="1" t="s">
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B8" s="1" t="s">
+      <x:c r="B8" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C8" s="1" t="s">
+      <x:c r="C8" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D8" s="1" t="s"/>
-      <x:c r="E8" s="1" t="s"/>
-      <x:c r="F8" s="1" t="s"/>
+      <x:c r="D8" s="2" t="s"/>
+      <x:c r="E8" s="2" t="s"/>
+      <x:c r="F8" s="2" t="s"/>
     </x:row>
-    <x:row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="1" t="s">
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B9" s="1" t="s">
+      <x:c r="B9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C9" s="1" t="s">
+      <x:c r="C9" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="s"/>
-      <x:c r="E9" s="1" t="s"/>
-      <x:c r="F9" s="1" t="s"/>
+      <x:c r="D9" s="2" t="s"/>
+      <x:c r="E9" s="2" t="s"/>
+      <x:c r="F9" s="2" t="s"/>
     </x:row>
-    <x:row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="1" t="s">
+    <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B10" s="1" t="s">
+      <x:c r="B10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C10" s="1" t="s">
+      <x:c r="C10" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="D10" s="1" t="s"/>
-      <x:c r="E10" s="1" t="s"/>
-      <x:c r="F10" s="1" t="s"/>
+      <x:c r="D10" s="2" t="s"/>
+      <x:c r="E10" s="2" t="s"/>
+      <x:c r="F10" s="2" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="1" t="s">
+    <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="s">
+      <x:c r="B11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C11" s="1" t="s">
+      <x:c r="C11" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s"/>
-      <x:c r="E11" s="1" t="s"/>
-      <x:c r="F11" s="1" t="s"/>
+      <x:c r="D11" s="2" t="s"/>
+      <x:c r="E11" s="2" t="s"/>
+      <x:c r="F11" s="2" t="s"/>
     </x:row>
-    <x:row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="1" t="s">
+    <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B12" s="1" t="s">
+      <x:c r="B12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="1" t="s">
+      <x:c r="C12" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D12" s="1" t="s"/>
-      <x:c r="E12" s="1" t="s"/>
-      <x:c r="F12" s="1" t="s"/>
+      <x:c r="D12" s="2" t="s"/>
+      <x:c r="E12" s="2" t="s"/>
+      <x:c r="F12" s="2" t="s"/>
     </x:row>
-    <x:row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="1" t="s">
+    <x:row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B13" s="1" t="s">
+      <x:c r="B13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="1" t="s">
+      <x:c r="C13" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s"/>
-      <x:c r="E13" s="1" t="s"/>
-      <x:c r="F13" s="1" t="s"/>
+      <x:c r="D13" s="2" t="s"/>
+      <x:c r="E13" s="2" t="s"/>
+      <x:c r="F13" s="2" t="s"/>
     </x:row>
-    <x:row r="15" spans="1:9"/>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="B9" r:id="rId8"/>
+    <x:hyperlink ref="B9" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
